--- a/MICHAEL_CARROLL.xlsx
+++ b/MICHAEL_CARROLL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -90,75 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 33161/BOC 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-865-1134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213 TARHEEL PACKERS DR, ST PAULS, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP-South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARROLL, MICHAEL P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-271-2387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPG240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24791666666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 35151/BOC 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-865-3059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1300, 3129 CHICKEN FOOT RD, ST PAULS, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24513888888888888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 37281/BOC 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-645-4887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3603 NC HWY 211 E, CLARKTON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25972222222222224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQUIRES SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-866-4192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1030 SQUIRE FARM RD, WHITE OAK, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23750000000000002</t>
   </si>
 </sst>
 </file>
@@ -495,34 +429,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="17.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="9.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="43.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="12.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="19.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="5.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="13.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -604,254 +539,9 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="n">
-        <v>7094</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33161</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="n">
-        <v>255</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2" t="n">
-        <v>150</v>
-      </c>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2" t="n">
-        <v>525</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.21518987341772</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7092</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="n">
-        <v>35151</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>158</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3" t="n">
-        <v>200</v>
-      </c>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3" t="n">
-        <v>440</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.44444444444444</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7082</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="n">
-        <v>37281</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4" t="n">
-        <v>140</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>100</v>
-      </c>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4" t="n">
-        <v>220</v>
-      </c>
-      <c r="W4" t="n">
-        <v>460</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.27722772277228</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7094</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2565</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="n">
-        <v>155</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>85</v>
-      </c>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5" t="n">
-        <v>200</v>
-      </c>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5" t="n">
-        <v>440</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2.24489795918367</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
